--- a/Plan for Hivery's Game.xlsx
+++ b/Plan for Hivery's Game.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B159F2F-16EB-5344-A4E7-9823B7CA9C1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D301B35-C750-7844-9AF5-863FF922708B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B6ABD925-7891-E348-BCA7-BC3A3534DCE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{B6ABD925-7891-E348-BCA7-BC3A3534DCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>TASKS</t>
   </si>
@@ -64,6 +61,27 @@
   </si>
   <si>
     <t>POSSIBLE ADVANCE OF THE WORK</t>
+  </si>
+  <si>
+    <t>Problems encountered</t>
+  </si>
+  <si>
+    <t>The zoom of localhost</t>
+  </si>
+  <si>
+    <t>Change the size of the font when we minimaze</t>
+  </si>
+  <si>
+    <t>If there is a way of finishing the game before the timer, where do we go? To the game over or to the replay?</t>
+  </si>
+  <si>
+    <t>View the perfect machine in the replay??</t>
+  </si>
+  <si>
+    <t>Set the background to the screen size</t>
+  </si>
+  <si>
+    <t>Button in the stats or under it</t>
   </si>
 </sst>
 </file>
@@ -85,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +134,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -137,6 +173,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,16 +1036,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>321735</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>141661</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>770467</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628303</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1034,69 +1073,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Game"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>END DATE</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Create a non functional UI</v>
-          </cell>
-          <cell r="D2">
-            <v>43326</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Make functional the UI</v>
-          </cell>
-          <cell r="D3">
-            <v>43333</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Create the logic for a standard set of data</v>
-          </cell>
-          <cell r="D4">
-            <v>43341</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Make dynamically the creation of elements using a given data</v>
-          </cell>
-          <cell r="D5">
-            <v>43348</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6680FE29-357E-1143-905D-48A7B2FF65D8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,6 +1475,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Plan for Hivery's Game.xlsx
+++ b/Plan for Hivery's Game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Desktop/game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fran/Documents/UC3M/game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D301B35-C750-7844-9AF5-863FF922708B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A9EB9-9D4A-9F4F-A5EE-2CA4EF42CE64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{B6ABD925-7891-E348-BCA7-BC3A3534DCE5}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{B6ABD925-7891-E348-BCA7-BC3A3534DCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
